--- a/biology/Médecine/Hôpital_de_Ville-Évrard/Hôpital_de_Ville-Évrard.xlsx
+++ b/biology/Médecine/Hôpital_de_Ville-Évrard/Hôpital_de_Ville-Évrard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Ville-%C3%89vrard</t>
+          <t>Hôpital_de_Ville-Évrard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital de Ville-Évrard est un hôpital psychiatrique situé à Neuilly-sur-Marne, en Seine-Saint-Denis, en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Ville-%C3%89vrard</t>
+          <t>Hôpital_de_Ville-Évrard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Établissement public de santé de Ville-Évrard est un établissement spécialisé en santé mentale. 
 C'est le département de la Seine qui a successivement ouvert sur le domaine de Ville Evrard à Neuilly-sur-Marne (précédemment en Seine-et-Oise) un premier asile en 1868 destiné aux aliénés indigents de l'Est de Paris, puis en 1875 une maison de santé pour les patients plus aisés, et enfin en 1900 un second asile. 
 Le premier asile, la maison de santé puis d'autres extensions ont constitué l'établissement public de santé de Ville-Évrard, le second asile l'établissement de Maison Blanche.
 Dans les années 1970 l'établissement de Ville-Évrard a comporté jusqu'à 2 000 lits d’hospitalisation sur le site de Neuilly-sur-Marne. Aujourd'hui il ne dispose plus que de 400 lits d'hospitalisation, dont un tiers sont implantés dans d'autres villes. 
 Ville-Évrard est aussi le nom du lieu, un domaine qui a appartenu entre autres à Philippe le Bel et à un général d'Empire, François-Xavier Donzelot.
-L'hôpital est partiellement inscrit au titre des monuments historiques par arrêté du 9 octobre 1996[1].
+L'hôpital est partiellement inscrit au titre des monuments historiques par arrêté du 9 octobre 1996.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Ville-%C3%89vrard</t>
+          <t>Hôpital_de_Ville-Évrard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Activité de l’institution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'établissement dessert aujourd'hui 33 communes du département soit une population d’1,6 million d'habitants. Son activité clinique est sectorisée avec 15 secteurs de psychiatrie générale pour les populations adultes et 3 intersecteurs de psychiatrie infantojuvénile.
 Chaque secteur offre sur son territoire une structure de consultation (centre médico-psychologique) et au moins une structure alternative à l'hospitalisation temps plein, qui peut être un hôpital de jour, ou bien un centre d'accueil thérapeutique à temps partiel. Certains secteurs proposent également des formules de prise en charge hors les murs comme l'hospitalisation à domicile, l'accueil familial thérapeutique ou les appartements thérapeutiques. Enfin quelques équipes de secteur assurent une activité dans les hôpitaux généraux et dans des structures destinées à la prise en charge des crises.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Ville-%C3%89vrard</t>
+          <t>Hôpital_de_Ville-Évrard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Usagers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La population desservie par l'hôpital, en 2000 était, pour les adultes, de 810 285 patients, et, pour les enfants, de 240 300.
 </t>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Ville-%C3%89vrard</t>
+          <t>Hôpital_de_Ville-Évrard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Médecins, infirmiers et psychologues
+          <t>Médecins, infirmiers et psychologues</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Robert Barande, psychiatre.
 Paul Brousse, médecin.
 Françoise Cloarec, psychologue.
@@ -637,11 +661,7 @@
 Jean Stephan, infirmier.
 Joseph Rogues de Fursac, médecin
 Joseph Capgras, médecin
-Patients
-Camille Claudel du 10 mars 1913 au 12 février 1915[2].
-Le père Komitas de 1919 à 1922.
-Salih Gourdji, père de Françoise Giroud, y est mort en 1927[3].
-Antonin Artaud, du 22 février 1939 au 22 janvier 1943[4].</t>
+</t>
         </is>
       </c>
     </row>
@@ -651,7 +671,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Ville-%C3%89vrard</t>
+          <t>Hôpital_de_Ville-Évrard</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -666,15 +686,56 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Quelques célébrités liées à l'hôpital</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Patients</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Camille Claudel du 10 mars 1913 au 12 février 1915.
+Le père Komitas de 1919 à 1922.
+Salih Gourdji, père de Françoise Giroud, y est mort en 1927.
+Antonin Artaud, du 22 février 1939 au 22 janvier 1943.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hôpital_de_Ville-Évrard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_Ville-%C3%89vrard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1994 : L'Eau froide d'Olivier Assayas : quelques scènes y ont été tournées (sources : générique et L2TC).
 2004 : Rois et Reine d'Arnaud Desplechin : le personnage d'Ismaël (Mathieu Amalric) y est enfermé.
 2006 : Ne le dis à personne réalisé par Guillaume Canet : quelques scènes y ont été tournées (sources : générique et L2TC).
-2009 : Matricule 262 602, d'Alexandre Deschamps et Nicolas Droin : sur le séjour d'Antonin Artaud à Ville-Evrard[5] (40 min).
+2009 : Matricule 262 602, d'Alexandre Deschamps et Nicolas Droin : sur le séjour d'Antonin Artaud à Ville-Evrard (40 min).
 2019 : Marianne (série française), Netflix : tournage pour l'ancienne école abandonnée.
 2022 : 5 Histoires flippantes, volume 3 (vidéo) : tournage pour la chaîne YouTube de McFly et Carlito.</t>
         </is>
